--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1862,6 +1862,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2558,8 +2561,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="173">
+  <fills count="200">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3536,8 +3640,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="187">
+  <borders count="219">
     <border>
       <left/>
       <right/>
@@ -5443,6 +5700,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5450,7 +6033,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5843,52 +6426,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="148" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="148" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="151" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="151" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="154" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="154" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="157" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="157" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="163" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="163" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="154" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="154" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="166" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="166" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="166" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="166" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="175" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="178" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="181" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="184" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="190" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="181" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="193" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="193" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6243,7 +6874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6328,24 +6959,21 @@
         <v>393</v>
       </c>
       <c r="Y1" t="s">
-        <v>591</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AD1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6423,24 +7051,21 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
-        <v>593</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="AD2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6511,22 +7136,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AC3" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6594,22 +7219,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
+      <c r="Y4" t="s">
+        <v>350</v>
+      </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="AD4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6668,22 +7293,22 @@
       <c r="W5" t="s">
         <v>355</v>
       </c>
+      <c r="Y5" t="s">
+        <v>351</v>
+      </c>
       <c r="Z5" t="s">
-        <v>351</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AD5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6736,22 +7361,22 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="AA6" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6798,22 +7423,22 @@
       <c r="W7" t="s">
         <v>356</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="AA7" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD7" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE7" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6854,22 +7479,22 @@
       <c r="W8" t="s">
         <v>358</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD8" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6910,13 +7535,13 @@
       <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6951,13 +7576,13 @@
       <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6989,13 +7614,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7027,13 +7652,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7062,13 +7687,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7097,13 +7722,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7129,13 +7754,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7153,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>596</v>
       </c>
       <c r="Q16" t="s">
         <v>488</v>
@@ -7161,13 +7786,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7185,15 +7810,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>489</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7210,10 +7835,13 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7230,10 +7858,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7250,10 +7878,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7270,10 +7898,10 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7290,10 +7918,10 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>490</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7310,10 +7938,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>588</v>
       </c>
     </row>
@@ -7330,16 +7958,16 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>591</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -7350,16 +7978,16 @@
       <c r="K25" t="s">
         <v>577</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>445</v>
@@ -7370,16 +7998,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -7390,16 +8018,16 @@
       <c r="K27" t="s">
         <v>430</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -7410,13 +8038,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>464</v>
@@ -7427,13 +8055,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>465</v>
@@ -7441,21 +8069,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7466,7 +8091,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7477,7 +8102,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7488,7 +8113,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7499,7 +8124,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7510,7 +8135,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7521,7 +8146,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7532,7 +8157,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7543,7 +8168,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7551,7 +8176,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7559,7 +8184,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7567,7 +8192,7 @@
       <c r="G42" t="s">
         <v>594</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7575,7 +8200,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7583,7 +8208,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7591,7 +8216,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7599,7 +8224,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7607,7 +8232,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7615,7 +8240,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7623,7 +8248,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7631,7 +8256,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7639,7 +8264,7 @@
       <c r="G51" t="s">
         <v>364</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7647,7 +8272,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7655,7 +8280,7 @@
       <c r="G53" t="s">
         <v>352</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7663,7 +8288,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7671,7 +8296,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7679,7 +8304,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7687,7 +8312,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7695,7 +8320,7 @@
       <c r="G58" t="s">
         <v>595</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7703,7 +8328,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7711,7 +8336,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7719,7 +8344,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7727,7 +8352,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7735,7 +8360,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7743,7 +8368,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7751,7 +8376,7 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7759,7 +8384,7 @@
       <c r="G66" t="s">
         <v>366</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7767,7 +8392,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7775,7 +8400,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7783,7 +8408,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7791,7 +8416,7 @@
       <c r="G70" t="s">
         <v>578</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7799,7 +8424,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7807,7 +8432,7 @@
       <c r="G72" t="s">
         <v>406</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7815,7 +8440,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7823,7 +8448,7 @@
       <c r="G74" t="s">
         <v>407</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7831,7 +8456,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7839,7 +8464,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7847,7 +8472,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7855,7 +8480,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7863,7 +8488,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7871,7 +8496,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7879,7 +8504,7 @@
       <c r="G81" t="s">
         <v>425</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7887,7 +8512,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7895,7 +8520,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7903,7 +8528,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7911,7 +8536,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7919,7 +8544,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7927,7 +8552,7 @@
       <c r="G87" t="s">
         <v>579</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7935,7 +8560,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7943,7 +8568,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7951,7 +8576,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7959,7 +8584,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7967,7 +8592,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7975,7 +8600,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7983,7 +8608,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7991,7 +8616,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7999,7 +8624,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8007,167 +8632,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1865,6 +1866,42 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2662,8 +2699,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="200">
+  <fills count="335">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3793,8 +4335,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="219">
+  <borders count="379">
     <border>
       <left/>
       <right/>
@@ -6026,6 +7333,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6033,7 +8970,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6474,52 +9411,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="172" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="175" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="175" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="178" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="178" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="181" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="181" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="184" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="184" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="187" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="190" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="190" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="181" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="181" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="193" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="193" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="193" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="193" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="196" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="184" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="184" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="199" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="202" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="205" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="208" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="211" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="214" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="217" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="208" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="220" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="220" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="211" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="226" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="229" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="232" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="235" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="238" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="241" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="244" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="235" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="247" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="247" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="253" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="256" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="259" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="262" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="265" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="268" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="271" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="262" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="274" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="274" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="265" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="277" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="265" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="280" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="283" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="286" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="289" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="292" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="295" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="298" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="289" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="301" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="301" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="292" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="304" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="292" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="307" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="310" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="313" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="316" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="319" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="325" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="316" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="328" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="328" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="331" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="334" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6874,7 +10051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6899,81 +10076,84 @@
         <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6991,81 +10171,84 @@
         <v>474</v>
       </c>
       <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>457</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>380</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>507</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>484</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>415</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>416</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>403</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7082,76 +10265,76 @@
       <c r="D3" t="s">
         <v>520</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>454</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>479</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>508</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>378</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7165,82 +10348,82 @@
       <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>447</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>480</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>509</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>418</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>603</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -7248,73 +10431,73 @@
       <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>455</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>429</v>
       </c>
-      <c r="G5" t="s">
-        <v>332</v>
-      </c>
       <c r="H5" t="s">
+        <v>600</v>
+      </c>
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>580</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>458</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>419</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
-        <v>351</v>
-      </c>
       <c r="Z5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>372</v>
@@ -7322,1477 +10505,1513 @@
       <c r="D6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
-        <v>384</v>
-      </c>
       <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>511</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>387</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
-        <v>362</v>
-      </c>
       <c r="H7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>581</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>512</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>399</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
-        <v>363</v>
-      </c>
       <c r="H8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>481</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>513</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>400</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>302</v>
-      </c>
       <c r="H9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>514</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
-      </c>
       <c r="H10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" t="s">
         <v>448</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>515</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
-        <v>270</v>
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>606</v>
       </c>
       <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>482</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>467</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>516</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
-        <v>259</v>
-      </c>
       <c r="H12" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>386</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>582</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>517</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
-        <v>312</v>
-      </c>
       <c r="H13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>432</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
-        <v>260</v>
-      </c>
       <c r="H14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>468</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" t="s">
         <v>483</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>487</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
         <v>381</v>
       </c>
-      <c r="G16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>596</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>488</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>382</v>
       </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="H17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>489</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>411</v>
       </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s">
         <v>459</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
-        <v>294</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="H21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" t="s">
         <v>592</v>
       </c>
-      <c r="G22" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>490</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="H23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
-        <v>275</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+      <c r="L24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="Z24" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="H25" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s">
         <v>577</v>
       </c>
-      <c r="Y25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="Z25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE25" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>445</v>
       </c>
-      <c r="G26" t="s">
-        <v>278</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="Z26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
-        <v>262</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="H27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="Z27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
-        <v>279</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
-        <v>323</v>
+      <c r="Z28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>464</v>
       </c>
-      <c r="G29" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
-        <v>111</v>
+      <c r="Z29" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>412</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="32">
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="33">
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="34">
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y34" t="s">
+    <row r="36">
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y35" t="s">
+    <row r="37">
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y36" t="s">
+    <row r="38">
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y37" t="s">
+    <row r="39">
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y38" t="s">
+    <row r="40">
+      <c r="H40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+    <row r="41">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z41" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z42" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41">
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y41" t="s">
+    <row r="43">
+      <c r="H43" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42">
-      <c r="G42" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y42" t="s">
+    <row r="44">
+      <c r="H44" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43">
-      <c r="G43" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y43" t="s">
+    <row r="45">
+      <c r="H45" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44">
-      <c r="G44" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y44" t="s">
+    <row r="46">
+      <c r="H46" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45">
-      <c r="G45" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y45" t="s">
+    <row r="47">
+      <c r="H47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46">
-      <c r="G46" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y46" t="s">
+    <row r="48">
+      <c r="H48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47">
-      <c r="G47" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y47" t="s">
+    <row r="49">
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z49" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="48">
-      <c r="G48" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y48" t="s">
+    <row r="50">
+      <c r="H50" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49">
-      <c r="G49" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y49" t="s">
+    <row r="51">
+      <c r="H51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50">
-      <c r="G50" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y50" t="s">
+    <row r="52">
+      <c r="H52" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z52" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="51">
-      <c r="G51" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y51" t="s">
+    <row r="53">
+      <c r="H53" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52">
-      <c r="G52" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y52" t="s">
+    <row r="54">
+      <c r="H54" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53">
-      <c r="G53" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y53" t="s">
+    <row r="55">
+      <c r="H55" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54">
-      <c r="G54" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y54" t="s">
+    <row r="56">
+      <c r="H56" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z56" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55">
-      <c r="G55" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y55" t="s">
+    <row r="57">
+      <c r="H57" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z57" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="56">
-      <c r="G56" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y56" t="s">
+    <row r="58">
+      <c r="H58" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57">
-      <c r="G57" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y57" t="s">
+    <row r="59">
+      <c r="H59" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58">
-      <c r="G58" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y58" t="s">
+    <row r="60">
+      <c r="H60" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59">
-      <c r="G59" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y59" t="s">
+    <row r="61">
+      <c r="H61" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60">
-      <c r="G60" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y60" t="s">
+    <row r="62">
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61">
-      <c r="G61" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y61" t="s">
+    <row r="63">
+      <c r="H63" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62">
-      <c r="G62" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y62" t="s">
+    <row r="64">
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63">
-      <c r="G63" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y63" t="s">
+    <row r="65">
+      <c r="H65" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64">
-      <c r="G64" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y64" t="s">
+    <row r="66">
+      <c r="H66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65">
-      <c r="G65" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y65" t="s">
+    <row r="67">
+      <c r="H67" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66">
-      <c r="G66" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y66" t="s">
+    <row r="68">
+      <c r="H68" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="67">
-      <c r="G67" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y67" t="s">
+    <row r="69">
+      <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z69" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="68">
-      <c r="G68" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y68" t="s">
+    <row r="70">
+      <c r="H70" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69">
-      <c r="G69" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y69" t="s">
+    <row r="71">
+      <c r="H71" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z71" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="70">
-      <c r="G70" t="s">
-        <v>578</v>
-      </c>
-      <c r="Y70" t="s">
+    <row r="72">
+      <c r="H72" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="71">
-      <c r="G71" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y71" t="s">
+    <row r="73">
+      <c r="H73" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72">
-      <c r="G72" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y72" t="s">
+    <row r="74">
+      <c r="H74" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73">
-      <c r="G73" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y73" t="s">
+    <row r="75">
+      <c r="H75" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74">
-      <c r="G74" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y74" t="s">
+    <row r="76">
+      <c r="H76" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75">
-      <c r="G75" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y75" t="s">
+    <row r="77">
+      <c r="H77" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76">
-      <c r="G76" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y76" t="s">
+    <row r="78">
+      <c r="H78" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77">
-      <c r="G77" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y77" t="s">
+    <row r="79">
+      <c r="H79" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z79" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="78">
-      <c r="G78" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y78" t="s">
+    <row r="80">
+      <c r="H80" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="79">
-      <c r="G79" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y79" t="s">
+    <row r="81">
+      <c r="H81" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80">
-      <c r="G80" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y80" t="s">
+    <row r="82">
+      <c r="H82" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81">
-      <c r="G81" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y81" t="s">
+    <row r="83">
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82">
-      <c r="G82" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y82" t="s">
+    <row r="84">
+      <c r="H84" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z84" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="83">
-      <c r="G83" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y83" t="s">
+    <row r="85">
+      <c r="H85" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84">
-      <c r="G84" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y84" t="s">
+    <row r="86">
+      <c r="H86" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85">
-      <c r="G85" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y85" t="s">
+    <row r="87">
+      <c r="H87" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86">
-      <c r="G86" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y86" t="s">
+    <row r="88">
+      <c r="H88" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z88" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="87">
-      <c r="G87" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y87" t="s">
+    <row r="89">
+      <c r="H89" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88">
-      <c r="G88" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y88" t="s">
+    <row r="90">
+      <c r="H90" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z90" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89">
-      <c r="G89" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y89" t="s">
+    <row r="91">
+      <c r="H91" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90">
-      <c r="G90" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y90" t="s">
+    <row r="92">
+      <c r="H92" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91">
-      <c r="G91" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y91" t="s">
+    <row r="93">
+      <c r="H93" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92">
-      <c r="G92" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y92" t="s">
+    <row r="96">
+      <c r="H96" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93">
-      <c r="G93" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y93" t="s">
+    <row r="97">
+      <c r="H97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94">
-      <c r="G94" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y94" t="s">
+    <row r="98">
+      <c r="H98" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z98" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="95">
-      <c r="G95" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y95" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="96">
-      <c r="G96" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y96" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97">
-      <c r="G97" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y97" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8447" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1902,6 +1902,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1924,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3204,8 +3219,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="335">
+  <fills count="389">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5100,8 +5317,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="379">
+  <borders count="443">
     <border>
       <left/>
       <right/>
@@ -8963,6 +9486,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8970,7 +10145,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9651,52 +10826,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="307" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="310" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="310" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="313" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="313" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="316" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="316" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="319" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="319" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="322" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="325" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="325" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="316" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="316" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="328" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="328" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="328" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="328" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="319" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="331" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="331" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="319" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="319" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="334" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="334" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="337" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="340" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="343" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="346" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="349" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="352" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="343" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="355" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="355" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="346" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="346" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="361" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="364" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="367" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="370" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="373" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="379" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="370" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="382" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="382" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10367,7 +11638,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>612</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -10403,7 +11674,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>613</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -10450,7 +11721,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -10521,7 +11792,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -10583,7 +11854,7 @@
         <v>581</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -10642,7 +11913,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -10698,7 +11969,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -10742,7 +12013,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -10783,7 +12054,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -10821,7 +12092,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>582</v>
@@ -10859,7 +12130,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -10894,7 +12165,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -10926,7 +12197,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -10958,7 +12229,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>596</v>
@@ -10990,7 +12261,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -11016,7 +12287,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -11033,13 +12304,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>611</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -11053,13 +12324,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -11073,13 +12344,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -11093,13 +12364,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>592</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -11113,13 +12384,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>592</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -11133,13 +12404,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>597</v>
@@ -11153,13 +12424,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>577</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -11173,13 +12444,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>577</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -11193,13 +12464,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -11213,13 +12484,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -11230,13 +12501,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -11247,10 +12518,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -11261,7 +12535,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -11272,7 +12546,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -11283,7 +12557,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -11294,7 +12568,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -11305,7 +12579,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -11316,7 +12590,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -11327,7 +12601,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -11338,7 +12612,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -11349,7 +12623,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -11359,6 +12633,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8447" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9012" uniqueCount="617">
   <si>
     <t>description</t>
   </si>
@@ -1917,6 +1917,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="252" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3421,8 +3430,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="389">
+  <fills count="416">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5623,8 +5733,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="443">
+  <borders count="475">
     <border>
       <left/>
       <right/>
@@ -10138,6 +10401,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10145,7 +10734,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10922,52 +11511,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="361" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="364" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="364" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="367" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="367" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="370" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="370" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="373" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="373" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="376" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="379" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="379" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="370" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="370" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="382" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="382" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="382" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="382" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="385" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="391" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="394" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="397" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="400" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="403" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="406" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="397" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="409" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="409" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="415" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11322,7 +11959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11788,6 +12425,9 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>614</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -12304,7 +12944,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -12324,7 +12964,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -12344,7 +12984,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -12364,7 +13004,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>592</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -12384,7 +13024,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>592</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -12404,7 +13044,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -12424,7 +13064,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -12444,7 +13084,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -12464,7 +13104,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -12484,7 +13124,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -12501,7 +13141,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -12518,7 +13158,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -12535,7 +13175,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -12546,7 +13186,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -12557,7 +13197,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -12568,7 +13208,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -12579,7 +13219,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -12590,7 +13230,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -12601,7 +13241,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -12612,7 +13252,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -12623,7 +13263,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -12633,9 +13273,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -13109,186 +13746,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>605</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9012" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9577" uniqueCount="617">
   <si>
     <t>description</t>
   </si>
@@ -1933,7 +1933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="252" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3531,8 +3531,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="416">
+  <fills count="443">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5886,8 +5987,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="475">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10727,6 +10981,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10734,7 +11314,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11559,52 +12139,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="391" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="391" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="394" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="394" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="397" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="397" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="400" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="400" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="403" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="403" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="406" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="406" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="397" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="397" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="409" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="409" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="409" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="409" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="412" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="415" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="418" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="421" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="424" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="427" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="433" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="424" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="436" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="436" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/sqs/artifact/script/LocalScript.xlsx
+++ b/examples/sqs/artifact/script/LocalScript.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9577" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10142" uniqueCount="617">
   <si>
     <t>description</t>
   </si>
@@ -1933,7 +1933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="284" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3632,8 +3632,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="443">
+  <fills count="470">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6140,8 +6241,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="539">
     <border>
       <left/>
       <right/>
@@ -11307,6 +11561,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11314,7 +11894,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="315">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12187,52 +12767,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="418" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="418" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="421" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="421" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="424" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="424" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="427" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="427" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="433" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="433" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="424" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="424" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="436" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="436" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="436" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="436" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="427" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="439" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="427" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="442" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="445" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="448" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="451" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="454" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="457" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="460" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="451" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="463" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="463" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="454" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="466" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="454" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="469" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
